--- a/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="113">
   <si>
     <t xml:space="preserve"> Lockless Linked List Key Range 131072 (2^17)</t>
   </si>
@@ -319,6 +319,45 @@
   </si>
   <si>
     <t>Cube (16 Core) 131072 Lockless</t>
+  </si>
+  <si>
+    <t>Compare-and-swap</t>
+  </si>
+  <si>
+    <t>Test-and-set</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set</t>
+  </si>
+  <si>
+    <t>TAS has a lot more cycles due to its structure but fewer instructions to execute as a result</t>
+  </si>
+  <si>
+    <t>TAS with fewer cache references &amp; a lower proportion of cache misses</t>
+  </si>
+  <si>
+    <t>TTAS uses its cycles quite efficiently</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Cache References</t>
+  </si>
+  <si>
+    <t>Cache Misses</t>
+  </si>
+  <si>
+    <t>Stalled Frontend Cycles</t>
+  </si>
+  <si>
+    <t>Stalled Backend Cycles</t>
+  </si>
+  <si>
+    <t>Lockless</t>
   </si>
 </sst>
 </file>
@@ -365,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,6 +419,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -420,7 +461,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Doubly Linked Buffer; Stoker; Locked;</a:t>
+              <a:t>Doubly Linked Buffer; Stoker; Compare-and-swap, Test-and-set &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Test-and-test-and-set locks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -440,15 +489,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128 Locked</c:v>
+                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,33 +537,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6094274</c:v>
+                  <c:v>5949172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6093844</c:v>
+                  <c:v>5960837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3191730</c:v>
+                  <c:v>3123662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2968884</c:v>
+                  <c:v>3151064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2290854</c:v>
+                  <c:v>3254280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1061063</c:v>
+                  <c:v>3260422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>956667</c:v>
+                  <c:v>3376652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>927074</c:v>
+                  <c:v>3621271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,15 +571,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
+                  <c:v>Stoker (32 Core) 128 TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,88 +619,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5949172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5960837</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3123662</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3151064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3254280</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3260422</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3376652</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3621271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128 TAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
@@ -687,7 +654,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$18</c:f>
@@ -777,11 +744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44940288"/>
-        <c:axId val="44942464"/>
+        <c:axId val="113076096"/>
+        <c:axId val="113086464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44940288"/>
+        <c:axId val="113076096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44942464"/>
+        <c:crossAx val="113086464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44942464"/>
+        <c:axId val="113086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44940288"/>
+        <c:crossAx val="113076096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,11 +1254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93847552"/>
-        <c:axId val="93849856"/>
+        <c:axId val="113400064"/>
+        <c:axId val="113402624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93847552"/>
+        <c:axId val="113400064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93849856"/>
+        <c:crossAx val="113402624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93849856"/>
+        <c:axId val="113402624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93847552"/>
+        <c:crossAx val="113400064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2289,11 +2256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33152384"/>
-        <c:axId val="45320064"/>
+        <c:axId val="113471872"/>
+        <c:axId val="113473792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33152384"/>
+        <c:axId val="113471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45320064"/>
+        <c:crossAx val="113473792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45320064"/>
+        <c:axId val="113473792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2327,490 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33152384"/>
+        <c:crossAx val="113471872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Best Performing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Locks vs Lockless</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$20:$AG$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5949172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3123662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3151064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3254280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3260422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3376652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3621271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$21:$AG$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5993999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4848986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6832317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3919244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6808247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6184161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4102146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4193558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$22:$AG$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5981033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5573104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3754635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3784453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3803067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5744112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8077373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4097078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$23:$AG$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4416877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5423874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6407599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1523954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>437256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>537154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="113356160"/>
+        <c:axId val="113478656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113356160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113478656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113478656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113356160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2386,16 +2836,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2418,16 +2868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2450,16 +2900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2475,6 +2925,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2770,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:O436"/>
+  <dimension ref="A6:AG436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +3268,11 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,7 +3498,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3041,7 +3527,7 @@
         <v>478154</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3070,7 +3556,7 @@
         <v>4097078</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3098,8 +3584,56 @@
       <c r="I19" s="6">
         <v>587783</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>64</v>
+      </c>
+      <c r="T19">
+        <v>128</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>16</v>
+      </c>
+      <c r="AE19">
+        <v>32</v>
+      </c>
+      <c r="AF19">
+        <v>64</v>
+      </c>
+      <c r="AG19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3127,8 +3661,62 @@
       <c r="I20" s="6">
         <v>482565</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="6">
+        <v>5949172</v>
+      </c>
+      <c r="N20" s="6">
+        <v>5960837</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3123662</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3151064</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>3254280</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3260422</v>
+      </c>
+      <c r="S20" s="6">
+        <v>3376652</v>
+      </c>
+      <c r="T20" s="6">
+        <v>3621271</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>5949172</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>5960837</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>3123662</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>3151064</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>3254280</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>3260422</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>3376652</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>3621271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3156,8 +3744,62 @@
       <c r="I21" s="6">
         <v>2306</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="6">
+        <v>5993999</v>
+      </c>
+      <c r="N21" s="6">
+        <v>4848986</v>
+      </c>
+      <c r="O21" s="6">
+        <v>6832317</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3919244</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>6808247</v>
+      </c>
+      <c r="R21" s="6">
+        <v>6184161</v>
+      </c>
+      <c r="S21" s="6">
+        <v>4102146</v>
+      </c>
+      <c r="T21" s="6">
+        <v>4193558</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>5993999</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>4848986</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>6832317</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>3919244</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>6808247</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>6184161</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>4102146</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>4193558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3185,8 +3827,62 @@
       <c r="I22" s="6">
         <v>37151</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="6">
+        <v>5981033</v>
+      </c>
+      <c r="N22" s="6">
+        <v>5573104</v>
+      </c>
+      <c r="O22" s="6">
+        <v>3754635</v>
+      </c>
+      <c r="P22" s="6">
+        <v>3784453</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3803067</v>
+      </c>
+      <c r="R22" s="6">
+        <v>5744112</v>
+      </c>
+      <c r="S22" s="6">
+        <v>8077373</v>
+      </c>
+      <c r="T22" s="6">
+        <v>4097078</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>5981033</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>5573104</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>3754635</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>3784453</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>3803067</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>5744112</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>8077373</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>4097078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3214,8 +3910,35 @@
       <c r="I23" s="6">
         <v>408992</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Y23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>4416877</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>5423874</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>6407599</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>1523954</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>710103</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>437256</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>537154</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>941193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3243,8 +3966,35 @@
       <c r="I24" s="6">
         <v>13963807</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="10">
+        <v>85308079089</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>83654891182</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="10">
+        <v>2720105582388</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3272,8 +4022,35 @@
       <c r="I25" s="6">
         <v>8690874</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M25" s="10">
+        <v>79994895074</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>86505423537</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="10">
+        <v>35474162702</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>1901831500205</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3301,8 +4078,33 @@
       <c r="I26" s="6">
         <v>1107</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M26" s="10">
+        <v>86035699</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>111460201</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="10">
+        <v>354385343</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="10">
+        <v>134361208960</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3330,8 +4132,42 @@
       <c r="I27" s="6">
         <v>6401511</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M27" s="10">
+        <v>77068971</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>89.577898355890611</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>102277723</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>91.761653112396587</v>
+      </c>
+      <c r="U27" s="10">
+        <v>285703484</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>80.619441419731629</v>
+      </c>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="10">
+        <v>670122662</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3359,8 +4195,37 @@
       <c r="I28" s="6">
         <v>3570434</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M28" s="10">
+        <v>15791646425</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>17434765060</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="10">
+        <v>7816648547</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="10">
+        <v>417186847</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <f>Z28/Z27*100</f>
+        <v>62.255296031161535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3388,8 +4253,41 @@
       <c r="I29" s="6">
         <v>3859491</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M29" s="10">
+        <v>3857290</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>2.4426142127229142E-2</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>5733887</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>3.2887664274611109E-2</v>
+      </c>
+      <c r="U29" s="10">
+        <v>16485489</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <v>0.2109022671401424</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>43911916506</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3417,8 +4315,36 @@
       <c r="I30" s="6">
         <v>48043</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M30" s="10">
+        <v>7497711279</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>7512907878</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="10">
+        <v>172802362385</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>53412889</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <f>Z30/Z29*100</f>
+        <v>0.12163643322810065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3446,8 +4372,32 @@
       <c r="I31" s="6">
         <v>4506048</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M31" s="10">
+        <v>56870.871408999999</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>57050.815692999997</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="10">
+        <v>1306160.0975959999</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>131573431168</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3475,8 +4425,32 @@
       <c r="I32" s="6">
         <v>8333710</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M32" s="10">
+        <v>56871.115091</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>57050.967133999999</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="10">
+        <v>1306157.0382419999</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>997297.92553899996</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3504,8 +4478,41 @@
       <c r="I33" s="6">
         <v>2327420</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M33" s="10">
+        <v>52355183299</v>
+      </c>
+      <c r="N33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>61.371893328390406</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>48079634126</v>
+      </c>
+      <c r="R33" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33">
+        <v>57.473787182865024</v>
+      </c>
+      <c r="U33" s="10">
+        <v>2702865287076</v>
+      </c>
+      <c r="V33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W33">
+        <v>99.366190216158273</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>997267.49901200004</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3533,8 +4540,45 @@
       <c r="I34" s="6">
         <v>3421791</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M34" s="10">
+        <v>41366005089</v>
+      </c>
+      <c r="N34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>48.49013778149169</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>39626617921</v>
+      </c>
+      <c r="R34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>47.369158409145655</v>
+      </c>
+      <c r="U34" s="10">
+        <v>2634229355419</v>
+      </c>
+      <c r="V34" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>96.842908322197971</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>1825851385993</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB34">
+        <f>Z34/Z25*100</f>
+        <v>96.004897689211163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3562,8 +4606,21 @@
       <c r="I35" s="6">
         <v>1951927</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="Z35" s="10">
+        <v>1539810715708</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB35">
+        <f>Z35/Z25*100</f>
+        <v>80.964623603196316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -3591,8 +4648,26 @@
       <c r="I36" s="6">
         <v>4180428</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>106</v>
+      </c>
+      <c r="N36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>110</v>
+      </c>
+      <c r="R36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -3620,8 +4695,29 @@
       <c r="I37" s="6">
         <v>4053571</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="10">
+        <v>83654891182</v>
+      </c>
+      <c r="N37" s="10">
+        <v>86505423537</v>
+      </c>
+      <c r="O37" s="10">
+        <v>111460201</v>
+      </c>
+      <c r="P37" s="10">
+        <v>102277723</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>48079634126</v>
+      </c>
+      <c r="R37" s="10">
+        <v>39626617921</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -3649,8 +4745,29 @@
       <c r="I38" s="7">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="10">
+        <v>2720105582388</v>
+      </c>
+      <c r="N38" s="10">
+        <v>35474162702</v>
+      </c>
+      <c r="O38" s="10">
+        <v>354385343</v>
+      </c>
+      <c r="P38" s="10">
+        <v>285703484</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>2702865287076</v>
+      </c>
+      <c r="R38" s="10">
+        <v>2634229355419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -3678,8 +4795,29 @@
       <c r="I39" s="6">
         <v>6485220</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="10">
+        <v>85308079089</v>
+      </c>
+      <c r="N39" s="10">
+        <v>79994895074</v>
+      </c>
+      <c r="O39" s="10">
+        <v>86035699</v>
+      </c>
+      <c r="P39" s="10">
+        <v>77068971</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>52355183299</v>
+      </c>
+      <c r="R39" s="10">
+        <v>41366005089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3707,8 +4845,29 @@
       <c r="I40" s="6">
         <v>120213</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40">
+        <v>1901831500205</v>
+      </c>
+      <c r="N40">
+        <v>134361208960</v>
+      </c>
+      <c r="O40" s="1">
+        <v>670122662</v>
+      </c>
+      <c r="P40" s="1">
+        <v>417186847</v>
+      </c>
+      <c r="Q40">
+        <v>1825851385993</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1539810715708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -3736,8 +4895,11 @@
       <c r="I41" s="6">
         <v>313834</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -3765,8 +4927,11 @@
       <c r="I42" s="6">
         <v>5411589</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3794,8 +4959,11 @@
       <c r="I43" s="6">
         <v>1040529</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3824,7 +4992,7 @@
         <v>4330903</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3853,7 +5021,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3882,7 +5050,7 @@
         <v>111106</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>67</v>
       </c>
@@ -3895,7 +5063,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1</v>
       </c>
@@ -3921,7 +5089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3950,7 +5118,7 @@
         <v>949825</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3978,8 +5146,20 @@
       <c r="I51" s="6">
         <v>3910836</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4008,7 +5188,7 @@
         <v>558429</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -4037,7 +5217,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -4065,8 +5245,20 @@
       <c r="I54" s="6">
         <v>4382517</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4095,7 +5287,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4123,9 +5315,8 @@
       <c r="I56" s="6">
         <v>485102</v>
       </c>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -4153,8 +5344,9 @@
       <c r="I57" s="6">
         <v>3471701</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -4183,7 +5375,7 @@
         <v>582545</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -4211,8 +5403,20 @@
       <c r="I59" s="6">
         <v>480256</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+    </row>
+    <row r="60" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -4240,9 +5444,8 @@
       <c r="I60" s="6">
         <v>2386</v>
       </c>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -4272,7 +5475,7 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -4284,9 +5487,20 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="5"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -4300,7 +5514,7 @@
       <c r="I63" s="6"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -4313,9 +5527,8 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="L64" s="1"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -4330,7 +5543,7 @@
       <c r="L65" s="1"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -4342,8 +5555,10 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="1"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -4355,9 +5570,20 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+    </row>
+    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -4369,8 +5595,9 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -4382,9 +5609,8 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -4396,10 +5622,20 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="L70" s="1"/>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L70" s="5"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -4414,7 +5650,7 @@
       <c r="L71" s="1"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -4429,7 +5665,7 @@
       <c r="L72" s="1"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +5680,7 @@
       <c r="L73" s="1"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -4456,8 +5692,10 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L74" s="1"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -4470,7 +5708,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -4483,7 +5721,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>57</v>
       </c>
@@ -4495,9 +5733,8 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -4511,7 +5748,7 @@
       <c r="I78" s="6"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -4525,7 +5762,7 @@
       <c r="I79" s="6"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -4552,7 +5789,6 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="L81" s="1"/>
-      <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -4582,6 +5818,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="L83" s="1"/>
+      <c r="O83" s="2"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4595,6 +5832,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -4608,11 +5846,9 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L86" s="1"/>
-      <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
@@ -4626,6 +5862,8 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
+      <c r="L87" s="1"/>
+      <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88">
@@ -4739,7 +5977,6 @@
       <c r="I91" s="7">
         <v>5855952</v>
       </c>
-      <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -4749,7 +5986,6 @@
       <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -4769,6 +6005,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="L95" s="1"/>
+      <c r="O95" s="2"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B96">
@@ -4795,6 +6032,7 @@
       <c r="I96">
         <v>128</v>
       </c>
+      <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -4824,7 +6062,6 @@
       <c r="I97" s="7">
         <v>1677683</v>
       </c>
-      <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -4839,7 +6076,6 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="L98" s="1"/>
-      <c r="O98" s="2"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -4853,6 +6089,8 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
+      <c r="L99" s="1"/>
+      <c r="O99" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -4868,7 +6106,6 @@
       <c r="A102" s="4"/>
       <c r="B102" s="1"/>
       <c r="E102" s="2"/>
-      <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
@@ -4882,6 +6119,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
+      <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104">
@@ -4908,7 +6146,6 @@
       <c r="I104">
         <v>128</v>
       </c>
-      <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -4937,7 +6174,6 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="L106" s="1"/>
-      <c r="O106" s="2"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -4957,20 +6193,20 @@
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="L108" s="1"/>
+      <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
+      <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="L111" s="1"/>
-      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -4991,6 +6227,8 @@
       <c r="G112" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L112" s="1"/>
+      <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -5080,7 +6318,6 @@
         <f>F117/F116*100</f>
         <v>0.14910606307756591</v>
       </c>
-      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
@@ -5113,7 +6350,6 @@
         <v>10</v>
       </c>
       <c r="L119" s="1"/>
-      <c r="O119" s="2"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
@@ -5155,6 +6391,7 @@
       </c>
       <c r="J121" s="8"/>
       <c r="L121" s="1"/>
+      <c r="O121" s="2"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
@@ -5178,6 +6415,7 @@
         <v>50.799918030948511</v>
       </c>
       <c r="J122" s="8"/>
+      <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
@@ -5185,17 +6423,17 @@
       <c r="E123" s="2"/>
       <c r="F123" s="6"/>
       <c r="J123" s="8"/>
-      <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="F124" s="2"/>
       <c r="J124" s="8"/>
       <c r="L124" s="1"/>
-      <c r="O124" s="2"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J125" s="8"/>
+      <c r="L125" s="1"/>
+      <c r="O125" s="2"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J126" s="8"/>

--- a/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="124">
   <si>
     <t xml:space="preserve"> Lockless Linked List Key Range 131072 (2^17)</t>
   </si>
@@ -359,6 +359,39 @@
   <si>
     <t>Lockless</t>
   </si>
+  <si>
+    <t>Test-and-test-and-set-no-pause</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set-relax</t>
+  </si>
+  <si>
+    <t>Stoker TASNP</t>
+  </si>
+  <si>
+    <t>Test-and-set-no-pause</t>
+  </si>
+  <si>
+    <t>Test-and-set-relax</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Branch Misses</t>
+  </si>
+  <si>
+    <t>Compare-and-swap-no-delay</t>
+  </si>
+  <si>
+    <t>Compare-and-swap-relax</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Ticket-relax</t>
+  </si>
 </sst>
 </file>
 
@@ -416,11 +449,11 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -744,11 +777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113076096"/>
-        <c:axId val="113086464"/>
+        <c:axId val="100238464"/>
+        <c:axId val="100240384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113076096"/>
+        <c:axId val="100238464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113086464"/>
+        <c:crossAx val="100240384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113086464"/>
+        <c:axId val="100240384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +848,2706 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113076096"/>
+        <c:crossAx val="100238464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Compare-and-swap Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$21:$CN$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5949172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3123662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3151064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3254280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3260422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3376652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3621271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$25:$CN$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6033726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6043401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4028603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3611937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3634834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5381707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3770885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3910836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45571072"/>
+        <c:axId val="115897472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45571072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115897472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115897472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45571072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Test-and-test-and-set Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$22:$CN$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5981033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5573104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3754635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3784453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3803067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5744112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8077373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4097078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$26:$CN$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5943982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5811985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3145282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3177863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4779231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4838961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3309840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3471701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="115813376"/>
+        <c:axId val="115817472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115813376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115817472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115817472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115813376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Lockless;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$29:$CN$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$30:$CN$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6294272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5849966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6547915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1774413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1645751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1627194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1763058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1840783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$29:$CN$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$31:$CN$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6293057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3203711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2494018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1758749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1642452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1626682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1778351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1853336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="115860608"/>
+        <c:axId val="115884032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115860608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115884032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115884032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115860608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Pthread</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mutex</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$19:$CX$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$20:$CX$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6094274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6093844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3191730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2968884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2290854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1061063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>956667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>927074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$19:$CX$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$21:$CX$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3887886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>437085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>442464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>423522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$19:$CX$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$22:$CX$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5447231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6786981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6526363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6365699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4262640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3867711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3088792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1951927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="98307456"/>
+        <c:axId val="98309632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98307456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98309632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98309632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98307456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Compare-and-swap Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$25:$CX$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$26:$CX$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5949172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3123662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3151064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3254280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3260422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3376652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3621271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$25:$CX$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$27:$CX$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6606209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13734993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14033982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13980006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14033145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14032806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10297260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13963807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$25:$CX$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$28:$CX$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6798273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6813351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6931531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6388732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4291305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8376759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6402210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4180428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="98648064"/>
+        <c:axId val="98649984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98648064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98649984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98649984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98648064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Test-and-test-and-set Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13561181434599157"/>
+          <c:y val="2.6058631921824105E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$30:$CX$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$31:$CX$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5981033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5573104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3754635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3784453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3803067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5744112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8077373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4097078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$30:$CX$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$32:$CX$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6310024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6200797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6123480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6224203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6195929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6242405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5234582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$30:$CX$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$33:$CX$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4515047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4294206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4555294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6351807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4315957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4301192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6446069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5411589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93072384"/>
+        <c:axId val="93549312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93072384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93549312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93549312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93072384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Test-and-test-and-set Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13561181434599157"/>
+          <c:y val="2.6058631921824105E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$70:$CX$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$71:$CX$71</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5266644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4864164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4862164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4645959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3968256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3693648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3902029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3403960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$70:$CX$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$72:$CX$72</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6681809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10074439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12793180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13350462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13259598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13346166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13379422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13322552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CP$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$70:$CX$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CQ$73:$CX$73</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7029139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7078128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10421046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5848567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5865736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6058356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5614912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5855952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="98540544"/>
+        <c:axId val="98547200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98540544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98547200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98547200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98540544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,11 +3986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113400064"/>
-        <c:axId val="113402624"/>
+        <c:axId val="100025856"/>
+        <c:axId val="100036608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113400064"/>
+        <c:axId val="100025856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +4019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113402624"/>
+        <c:crossAx val="100036608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +4027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113402624"/>
+        <c:axId val="100036608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +4057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113400064"/>
+        <c:crossAx val="100025856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,11 +4988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113471872"/>
-        <c:axId val="113473792"/>
+        <c:axId val="107040128"/>
+        <c:axId val="107050496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113471872"/>
+        <c:axId val="107040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +5021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113473792"/>
+        <c:crossAx val="107050496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +5029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113473792"/>
+        <c:axId val="107050496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +5059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113471872"/>
+        <c:crossAx val="107040128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2739,11 +5471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113356160"/>
-        <c:axId val="113478656"/>
+        <c:axId val="107078400"/>
+        <c:axId val="107080320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113356160"/>
+        <c:axId val="107078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +5504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113478656"/>
+        <c:crossAx val="107080320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2780,7 +5512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113478656"/>
+        <c:axId val="107080320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +5542,1988 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113356160"/>
+        <c:crossAx val="107078400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Test-and-set Lock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$19:$AR$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5991002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1917139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>478154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$19:$AR$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$21:$AR$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5981033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5573104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3754635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3784453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3803067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5744112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8077373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4097078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AK$19:$AR$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$22:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5995773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2263239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>704206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>587783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119464320"/>
+        <c:axId val="119466240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119464320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119466240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119466240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119464320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Test-and-set Lock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AV$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AW$19:$BD$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$20:$BD$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5993999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4848986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6832317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3919244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6808247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6184161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4102146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4193558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AV$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AW$19:$BD$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$21:$BD$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5978197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AV$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AW$19:$BD$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$22:$BD$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5994163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2978767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="44656896"/>
+        <c:axId val="44676224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44656896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44676224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44676224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44656896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Compare-and-swap Lock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$19:$BQ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$20:$BQ$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5949172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3123662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3151064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3254280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3260422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3376652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3621271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CAS lock No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$19:$BQ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$21:$BQ$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6044311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5510019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1538525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>762676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>516722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>415111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>636689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$19:$BQ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$22:$BQ$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6050386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3036389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>755635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>664684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>593169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>482565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107222528"/>
+        <c:axId val="107234432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107222528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107234432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107234432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107222528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Ticket Lock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BU$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BV$19:$CC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BV$20:$CC$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6650446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BU$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BV$19:$CC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BV$21:$CC$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6793939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5548108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93063040"/>
+        <c:axId val="93520256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93063040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93520256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93520256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93063040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Doubly Linked Buffer; Stoker; Pthread Mutex Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$20:$CN$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6094274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6093844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3191730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2968884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2290854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1061063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>956667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>927074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CF$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CG$19:$CN$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CG$24:$CN$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6103940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6097251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5415839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3558610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2399035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1134301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>961173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>949825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45668992"/>
+        <c:axId val="58659584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45668992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58659584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58659584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45668992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2957,6 +7670,390 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>1314451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3252,10 +8349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AG436"/>
+  <dimension ref="A6:CX436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" topLeftCell="CB58" workbookViewId="0">
+      <selection activeCell="CP76" sqref="CP76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,6 +8370,16 @@
     <col min="20" max="20" width="13" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="25" max="25" width="30.28515625" customWidth="1"/>
+    <col min="36" max="36" width="29" customWidth="1"/>
+    <col min="48" max="48" width="26" customWidth="1"/>
+    <col min="52" max="52" width="13" customWidth="1"/>
+    <col min="56" max="56" width="17.5703125" customWidth="1"/>
+    <col min="61" max="61" width="31.42578125" customWidth="1"/>
+    <col min="65" max="65" width="18.85546875" customWidth="1"/>
+    <col min="69" max="69" width="20.140625" customWidth="1"/>
+    <col min="74" max="74" width="17.7109375" customWidth="1"/>
+    <col min="84" max="84" width="35.5703125" customWidth="1"/>
+    <col min="94" max="94" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3286,17 +8393,17 @@
       <c r="I6" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -3498,7 +8605,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3527,7 +8634,7 @@
         <v>478154</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3556,7 +8663,7 @@
         <v>4097078</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3632,8 +8739,152 @@
       <c r="AG19">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <v>8</v>
+      </c>
+      <c r="AO19">
+        <v>16</v>
+      </c>
+      <c r="AP19">
+        <v>32</v>
+      </c>
+      <c r="AQ19">
+        <v>64</v>
+      </c>
+      <c r="AR19">
+        <v>128</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>8</v>
+      </c>
+      <c r="BA19">
+        <v>16</v>
+      </c>
+      <c r="BB19">
+        <v>32</v>
+      </c>
+      <c r="BC19">
+        <v>64</v>
+      </c>
+      <c r="BD19">
+        <v>128</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>2</v>
+      </c>
+      <c r="BL19">
+        <v>4</v>
+      </c>
+      <c r="BM19">
+        <v>8</v>
+      </c>
+      <c r="BN19">
+        <v>16</v>
+      </c>
+      <c r="BO19">
+        <v>32</v>
+      </c>
+      <c r="BP19">
+        <v>64</v>
+      </c>
+      <c r="BQ19">
+        <v>128</v>
+      </c>
+      <c r="BV19">
+        <v>1</v>
+      </c>
+      <c r="BW19">
+        <v>2</v>
+      </c>
+      <c r="BX19">
+        <v>4</v>
+      </c>
+      <c r="BY19">
+        <v>8</v>
+      </c>
+      <c r="BZ19">
+        <v>16</v>
+      </c>
+      <c r="CA19">
+        <v>32</v>
+      </c>
+      <c r="CB19">
+        <v>64</v>
+      </c>
+      <c r="CC19">
+        <v>128</v>
+      </c>
+      <c r="CG19">
+        <v>1</v>
+      </c>
+      <c r="CH19">
+        <v>2</v>
+      </c>
+      <c r="CI19">
+        <v>4</v>
+      </c>
+      <c r="CJ19">
+        <v>8</v>
+      </c>
+      <c r="CK19">
+        <v>16</v>
+      </c>
+      <c r="CL19">
+        <v>32</v>
+      </c>
+      <c r="CM19">
+        <v>64</v>
+      </c>
+      <c r="CN19">
+        <v>128</v>
+      </c>
+      <c r="CQ19">
+        <v>1</v>
+      </c>
+      <c r="CR19">
+        <v>2</v>
+      </c>
+      <c r="CS19">
+        <v>4</v>
+      </c>
+      <c r="CT19">
+        <v>8</v>
+      </c>
+      <c r="CU19">
+        <v>16</v>
+      </c>
+      <c r="CV19">
+        <v>32</v>
+      </c>
+      <c r="CW19">
+        <v>64</v>
+      </c>
+      <c r="CX19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3715,8 +8966,170 @@
       <c r="AG20" s="6">
         <v>3621271</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>5991002</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>1917139</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>333506</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>206111</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>173720</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>122537</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>472267</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>478154</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW20" s="6">
+        <v>5993999</v>
+      </c>
+      <c r="AX20" s="6">
+        <v>4848986</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>6832317</v>
+      </c>
+      <c r="AZ20" s="6">
+        <v>3919244</v>
+      </c>
+      <c r="BA20" s="6">
+        <v>6808247</v>
+      </c>
+      <c r="BB20" s="6">
+        <v>6184161</v>
+      </c>
+      <c r="BC20" s="6">
+        <v>4102146</v>
+      </c>
+      <c r="BD20" s="6">
+        <v>4193558</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ20" s="6">
+        <v>5949172</v>
+      </c>
+      <c r="BK20" s="6">
+        <v>5960837</v>
+      </c>
+      <c r="BL20" s="6">
+        <v>3123662</v>
+      </c>
+      <c r="BM20" s="6">
+        <v>3151064</v>
+      </c>
+      <c r="BN20" s="6">
+        <v>3254280</v>
+      </c>
+      <c r="BO20" s="6">
+        <v>3260422</v>
+      </c>
+      <c r="BP20" s="6">
+        <v>3376652</v>
+      </c>
+      <c r="BQ20" s="6">
+        <v>3621271</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV20" s="6">
+        <v>6650446</v>
+      </c>
+      <c r="BW20" s="6">
+        <v>154</v>
+      </c>
+      <c r="BX20" s="6">
+        <v>107</v>
+      </c>
+      <c r="BY20" s="6">
+        <v>92</v>
+      </c>
+      <c r="BZ20" s="6">
+        <v>114</v>
+      </c>
+      <c r="CA20" s="6">
+        <v>113</v>
+      </c>
+      <c r="CB20" s="6">
+        <v>163</v>
+      </c>
+      <c r="CC20" s="6">
+        <v>238</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG20" s="6">
+        <v>6094274</v>
+      </c>
+      <c r="CH20" s="6">
+        <v>6093844</v>
+      </c>
+      <c r="CI20" s="6">
+        <v>3191730</v>
+      </c>
+      <c r="CJ20" s="6">
+        <v>2968884</v>
+      </c>
+      <c r="CK20" s="6">
+        <v>2290854</v>
+      </c>
+      <c r="CL20" s="6">
+        <v>1061063</v>
+      </c>
+      <c r="CM20" s="6">
+        <v>956667</v>
+      </c>
+      <c r="CN20" s="6">
+        <v>927074</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ20" s="6">
+        <v>6094274</v>
+      </c>
+      <c r="CR20" s="6">
+        <v>6093844</v>
+      </c>
+      <c r="CS20" s="6">
+        <v>3191730</v>
+      </c>
+      <c r="CT20" s="6">
+        <v>2968884</v>
+      </c>
+      <c r="CU20" s="6">
+        <v>2290854</v>
+      </c>
+      <c r="CV20" s="6">
+        <v>1061063</v>
+      </c>
+      <c r="CW20" s="6">
+        <v>956667</v>
+      </c>
+      <c r="CX20" s="6">
+        <v>927074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3798,8 +9211,170 @@
       <c r="AG21" s="6">
         <v>4193558</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>5981033</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>5573104</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>3754635</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>3784453</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>3803067</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>5744112</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>8077373</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>4097078</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW21" s="6">
+        <v>5978197</v>
+      </c>
+      <c r="AX21" s="6">
+        <v>829268</v>
+      </c>
+      <c r="AY21" s="6">
+        <v>338155</v>
+      </c>
+      <c r="AZ21" s="6">
+        <v>188086</v>
+      </c>
+      <c r="BA21" s="6">
+        <v>110029</v>
+      </c>
+      <c r="BB21" s="6">
+        <v>57953</v>
+      </c>
+      <c r="BC21" s="6">
+        <v>68353</v>
+      </c>
+      <c r="BD21" s="6">
+        <v>37616</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ21" s="6">
+        <v>6044311</v>
+      </c>
+      <c r="BK21" s="6">
+        <v>5510019</v>
+      </c>
+      <c r="BL21" s="6">
+        <v>1538525</v>
+      </c>
+      <c r="BM21" s="6">
+        <v>762676</v>
+      </c>
+      <c r="BN21" s="6">
+        <v>516722</v>
+      </c>
+      <c r="BO21" s="6">
+        <v>415111</v>
+      </c>
+      <c r="BP21" s="6">
+        <v>499687</v>
+      </c>
+      <c r="BQ21" s="6">
+        <v>636689</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV21" s="6">
+        <v>6793939</v>
+      </c>
+      <c r="BW21" s="6">
+        <v>5548108</v>
+      </c>
+      <c r="BX21" s="6">
+        <v>321169</v>
+      </c>
+      <c r="BY21" s="6">
+        <v>307036</v>
+      </c>
+      <c r="BZ21" s="6">
+        <v>313504</v>
+      </c>
+      <c r="CA21" s="6">
+        <v>319031</v>
+      </c>
+      <c r="CB21" s="6">
+        <v>307280</v>
+      </c>
+      <c r="CC21" s="6">
+        <v>2306</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG21" s="6">
+        <v>5949172</v>
+      </c>
+      <c r="CH21" s="6">
+        <v>5960837</v>
+      </c>
+      <c r="CI21" s="6">
+        <v>3123662</v>
+      </c>
+      <c r="CJ21" s="6">
+        <v>3151064</v>
+      </c>
+      <c r="CK21" s="6">
+        <v>3254280</v>
+      </c>
+      <c r="CL21" s="6">
+        <v>3260422</v>
+      </c>
+      <c r="CM21" s="6">
+        <v>3376652</v>
+      </c>
+      <c r="CN21" s="6">
+        <v>3621271</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>42</v>
+      </c>
+      <c r="CQ21" s="6">
+        <v>3887886</v>
+      </c>
+      <c r="CR21" s="6">
+        <v>437085</v>
+      </c>
+      <c r="CS21" s="6">
+        <v>442464</v>
+      </c>
+      <c r="CT21" s="6">
+        <v>430528</v>
+      </c>
+      <c r="CU21" s="6">
+        <v>423522</v>
+      </c>
+      <c r="CV21" s="6">
+        <v>419713</v>
+      </c>
+      <c r="CW21" s="6">
+        <v>414071</v>
+      </c>
+      <c r="CX21" s="6">
+        <v>408992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -3881,8 +9456,143 @@
       <c r="AG22" s="6">
         <v>4097078</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>5995773</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>2263239</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>715481</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>239569</v>
+      </c>
+      <c r="AO22" s="6">
+        <v>179890</v>
+      </c>
+      <c r="AP22" s="6">
+        <v>143522</v>
+      </c>
+      <c r="AQ22" s="6">
+        <v>704206</v>
+      </c>
+      <c r="AR22" s="6">
+        <v>587783</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW22" s="6">
+        <v>5994163</v>
+      </c>
+      <c r="AX22" s="6">
+        <v>2978767</v>
+      </c>
+      <c r="AY22" s="6">
+        <v>448331</v>
+      </c>
+      <c r="AZ22" s="6">
+        <v>233992</v>
+      </c>
+      <c r="BA22" s="6">
+        <v>130692</v>
+      </c>
+      <c r="BB22" s="6">
+        <v>65314</v>
+      </c>
+      <c r="BC22" s="6">
+        <v>72587</v>
+      </c>
+      <c r="BD22" s="6">
+        <v>37151</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ22" s="6">
+        <v>6050386</v>
+      </c>
+      <c r="BK22" s="6">
+        <v>3036389</v>
+      </c>
+      <c r="BL22" s="6">
+        <v>972368</v>
+      </c>
+      <c r="BM22" s="6">
+        <v>755635</v>
+      </c>
+      <c r="BN22" s="6">
+        <v>664684</v>
+      </c>
+      <c r="BO22" s="6">
+        <v>593169</v>
+      </c>
+      <c r="BP22" s="6">
+        <v>540056</v>
+      </c>
+      <c r="BQ22" s="6">
+        <v>482565</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG22" s="6">
+        <v>5981033</v>
+      </c>
+      <c r="CH22" s="6">
+        <v>5573104</v>
+      </c>
+      <c r="CI22" s="6">
+        <v>3754635</v>
+      </c>
+      <c r="CJ22" s="6">
+        <v>3784453</v>
+      </c>
+      <c r="CK22" s="6">
+        <v>3803067</v>
+      </c>
+      <c r="CL22" s="6">
+        <v>5744112</v>
+      </c>
+      <c r="CM22" s="6">
+        <v>8077373</v>
+      </c>
+      <c r="CN22" s="6">
+        <v>4097078</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ22" s="6">
+        <v>5447231</v>
+      </c>
+      <c r="CR22" s="6">
+        <v>6786981</v>
+      </c>
+      <c r="CS22" s="6">
+        <v>6526363</v>
+      </c>
+      <c r="CT22" s="6">
+        <v>6365699</v>
+      </c>
+      <c r="CU22" s="6">
+        <v>4262640</v>
+      </c>
+      <c r="CV22" s="6">
+        <v>3867711</v>
+      </c>
+      <c r="CW22" s="6">
+        <v>3088792</v>
+      </c>
+      <c r="CX22" s="6">
+        <v>1951927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3913,7 +9623,7 @@
       <c r="Y23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="10">
         <v>4416877</v>
       </c>
       <c r="AA23" s="7">
@@ -3937,8 +9647,32 @@
       <c r="AG23" s="7">
         <v>941193</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="CG23">
+        <v>1</v>
+      </c>
+      <c r="CH23">
+        <v>2</v>
+      </c>
+      <c r="CI23">
+        <v>4</v>
+      </c>
+      <c r="CJ23">
+        <v>8</v>
+      </c>
+      <c r="CK23">
+        <v>16</v>
+      </c>
+      <c r="CL23">
+        <v>32</v>
+      </c>
+      <c r="CM23">
+        <v>64</v>
+      </c>
+      <c r="CN23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3969,7 +9703,7 @@
       <c r="L24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>85308079089</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3978,7 +9712,7 @@
       <c r="P24" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <v>83654891182</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -3987,14 +9721,59 @@
       <c r="T24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <v>2720105582388</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="BV24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW24" s="9">
+        <v>15235683705</v>
+      </c>
+      <c r="BX24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA24" s="9">
+        <v>2868611813250</v>
+      </c>
+      <c r="CB24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG24" s="6">
+        <v>6103940</v>
+      </c>
+      <c r="CH24" s="6">
+        <v>6097251</v>
+      </c>
+      <c r="CI24" s="6">
+        <v>5415839</v>
+      </c>
+      <c r="CJ24" s="6">
+        <v>3558610</v>
+      </c>
+      <c r="CK24" s="6">
+        <v>2399035</v>
+      </c>
+      <c r="CL24" s="6">
+        <v>1134301</v>
+      </c>
+      <c r="CM24" s="6">
+        <v>961173</v>
+      </c>
+      <c r="CN24" s="6">
+        <v>949825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -4022,19 +9801,19 @@
       <c r="I25" s="6">
         <v>8690874</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <v>79994895074</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <v>86505423537</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="9">
         <v>35474162702</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -4043,14 +9822,131 @@
       <c r="Y25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="9">
         <v>1901831500205</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AV25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW25" s="9">
+        <v>2720105582388</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA25" s="9">
+        <v>87349898042</v>
+      </c>
+      <c r="BB25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE25" s="9">
+        <v>2693588148093</v>
+      </c>
+      <c r="BF25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ25" s="9">
+        <v>83654891182</v>
+      </c>
+      <c r="BK25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN25" s="9">
+        <v>2237154340867</v>
+      </c>
+      <c r="BO25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR25" s="9">
+        <v>2345969106607</v>
+      </c>
+      <c r="BS25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW25" s="9">
+        <v>17935791772</v>
+      </c>
+      <c r="BX25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA25" s="9">
+        <v>396264594841</v>
+      </c>
+      <c r="CB25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG25" s="6">
+        <v>6033726</v>
+      </c>
+      <c r="CH25" s="6">
+        <v>6043401</v>
+      </c>
+      <c r="CI25" s="6">
+        <v>4028603</v>
+      </c>
+      <c r="CJ25" s="6">
+        <v>3611937</v>
+      </c>
+      <c r="CK25" s="6">
+        <v>3634834</v>
+      </c>
+      <c r="CL25" s="6">
+        <v>5381707</v>
+      </c>
+      <c r="CM25" s="6">
+        <v>3770885</v>
+      </c>
+      <c r="CN25" s="6">
+        <v>3910836</v>
+      </c>
+      <c r="CQ25">
+        <v>1</v>
+      </c>
+      <c r="CR25">
+        <v>2</v>
+      </c>
+      <c r="CS25">
+        <v>4</v>
+      </c>
+      <c r="CT25">
+        <v>8</v>
+      </c>
+      <c r="CU25">
+        <v>16</v>
+      </c>
+      <c r="CV25">
+        <v>32</v>
+      </c>
+      <c r="CW25">
+        <v>64</v>
+      </c>
+      <c r="CX25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4078,33 +9974,162 @@
       <c r="I26" s="6">
         <v>1107</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>86035699</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <v>111460201</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="9">
         <v>354385343</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="10">
+      <c r="Z26" s="9">
         <v>134361208960</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK26" s="9">
+        <v>85308079089</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>2224449490173</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>2135441891704</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW26" s="9">
+        <v>35474162702</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA26" s="9">
+        <v>82246924101</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE26" s="9">
+        <v>39019197092</v>
+      </c>
+      <c r="BF26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ26" s="9">
+        <v>86505423537</v>
+      </c>
+      <c r="BK26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN26" s="9">
+        <v>170463112143</v>
+      </c>
+      <c r="BO26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR26" s="9">
+        <v>214144820112</v>
+      </c>
+      <c r="BS26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW26" s="9">
+        <v>30612257</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA26" s="9">
+        <v>435086720</v>
+      </c>
+      <c r="CB26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG26" s="6">
+        <v>5943982</v>
+      </c>
+      <c r="CH26" s="6">
+        <v>5811985</v>
+      </c>
+      <c r="CI26" s="6">
+        <v>3145282</v>
+      </c>
+      <c r="CJ26" s="6">
+        <v>3177863</v>
+      </c>
+      <c r="CK26" s="6">
+        <v>4779231</v>
+      </c>
+      <c r="CL26" s="6">
+        <v>4838961</v>
+      </c>
+      <c r="CM26" s="6">
+        <v>3309840</v>
+      </c>
+      <c r="CN26" s="6">
+        <v>3471701</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ26" s="6">
+        <v>5949172</v>
+      </c>
+      <c r="CR26" s="6">
+        <v>5960837</v>
+      </c>
+      <c r="CS26" s="6">
+        <v>3123662</v>
+      </c>
+      <c r="CT26" s="6">
+        <v>3151064</v>
+      </c>
+      <c r="CU26" s="6">
+        <v>3254280</v>
+      </c>
+      <c r="CV26" s="6">
+        <v>3260422</v>
+      </c>
+      <c r="CW26" s="6">
+        <v>3376652</v>
+      </c>
+      <c r="CX26" s="6">
+        <v>3621271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4132,7 +10157,7 @@
       <c r="I27" s="6">
         <v>6401511</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="9">
         <v>77068971</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -4141,7 +10166,7 @@
       <c r="O27">
         <v>89.577898355890611</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <v>102277723</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -4150,7 +10175,7 @@
       <c r="S27">
         <v>91.761653112396587</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="9">
         <v>285703484</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -4160,14 +10185,113 @@
         <v>80.619441419731629</v>
       </c>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="10">
+      <c r="Z27" s="9">
         <v>670122662</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK27" s="9">
+        <v>79994895074</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>469875057011</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>87362650264</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="9">
+        <v>354385343</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA27" s="9">
+        <v>90602283</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE27" s="9">
+        <v>256543172</v>
+      </c>
+      <c r="BF27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ27" s="9">
+        <v>111460201</v>
+      </c>
+      <c r="BK27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN27" s="9">
+        <v>939460342</v>
+      </c>
+      <c r="BO27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR27" s="9">
+        <v>843901089</v>
+      </c>
+      <c r="BS27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW27" s="9">
+        <v>23681053</v>
+      </c>
+      <c r="BX27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY27">
+        <v>77.358075884440666</v>
+      </c>
+      <c r="CA27" s="9">
+        <v>228332441</v>
+      </c>
+      <c r="CB27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC27">
+        <v>52.479754151080506</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ27" s="6">
+        <v>6606209</v>
+      </c>
+      <c r="CR27" s="6">
+        <v>13734993</v>
+      </c>
+      <c r="CS27" s="6">
+        <v>14033982</v>
+      </c>
+      <c r="CT27" s="6">
+        <v>13980006</v>
+      </c>
+      <c r="CU27" s="6">
+        <v>14033145</v>
+      </c>
+      <c r="CV27" s="6">
+        <v>14032806</v>
+      </c>
+      <c r="CW27" s="6">
+        <v>10297260</v>
+      </c>
+      <c r="CX27" s="6">
+        <v>13963807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4195,26 +10319,26 @@
       <c r="I28" s="6">
         <v>3570434</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>15791646425</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <v>17434765060</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="9">
         <v>7816648547</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <v>417186847</v>
       </c>
       <c r="AA28" s="1" t="s">
@@ -4224,8 +10348,119 @@
         <f>Z28/Z27*100</f>
         <v>62.255296031161535</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK28" s="9">
+        <v>86035699</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO28" s="9">
+        <v>678328971</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS28" s="9">
+        <v>420025563</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW28" s="9">
+        <v>285703484</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>80.619441419731629</v>
+      </c>
+      <c r="BA28" s="9">
+        <v>81353353</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC28">
+        <v>89.791725226173384</v>
+      </c>
+      <c r="BE28" s="9">
+        <v>216932828</v>
+      </c>
+      <c r="BF28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG28">
+        <v>84.559969500961813</v>
+      </c>
+      <c r="BJ28" s="9">
+        <v>102277723</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL28">
+        <v>91.761653112396587</v>
+      </c>
+      <c r="BN28" s="9">
+        <v>650630460</v>
+      </c>
+      <c r="BO28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP28">
+        <v>69.255766413181917</v>
+      </c>
+      <c r="BR28" s="9">
+        <v>607770662</v>
+      </c>
+      <c r="BS28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT28">
+        <v>72.019182096351102</v>
+      </c>
+      <c r="BW28" s="9">
+        <v>3597333195</v>
+      </c>
+      <c r="BX28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA28" s="9">
+        <v>97725955606</v>
+      </c>
+      <c r="CB28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ28" s="6">
+        <v>6798273</v>
+      </c>
+      <c r="CR28" s="6">
+        <v>6813351</v>
+      </c>
+      <c r="CS28" s="6">
+        <v>6931531</v>
+      </c>
+      <c r="CT28" s="6">
+        <v>6388732</v>
+      </c>
+      <c r="CU28" s="6">
+        <v>4291305</v>
+      </c>
+      <c r="CV28" s="6">
+        <v>8376759</v>
+      </c>
+      <c r="CW28" s="6">
+        <v>6402210</v>
+      </c>
+      <c r="CX28" s="6">
+        <v>4180428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -4253,7 +10488,7 @@
       <c r="I29" s="6">
         <v>3859491</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>3857290</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -4262,7 +10497,7 @@
       <c r="O29">
         <v>2.4426142127229142E-2</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <v>5733887</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -4271,7 +10506,7 @@
       <c r="S29">
         <v>3.2887664274611109E-2</v>
       </c>
-      <c r="U29" s="10">
+      <c r="U29" s="9">
         <v>16485489</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -4280,14 +10515,119 @@
       <c r="W29">
         <v>0.2109022671401424</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="9">
         <v>43911916506</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK29" s="9">
+        <v>77068971</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM29">
+        <v>89.577898355890611</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>301952365</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ29">
+        <v>44.514148430791408</v>
+      </c>
+      <c r="AS29" s="9">
+        <v>248508290</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU29">
+        <v>59.165039438325806</v>
+      </c>
+      <c r="AW29" s="9">
+        <v>7816648547</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA29" s="9">
+        <v>16174785281</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE29" s="9">
+        <v>7909806724</v>
+      </c>
+      <c r="BF29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ29" s="9">
+        <v>17434765060</v>
+      </c>
+      <c r="BK29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN29" s="9">
+        <v>58303234957</v>
+      </c>
+      <c r="BO29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR29" s="9">
+        <v>76807527665</v>
+      </c>
+      <c r="BS29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW29" s="9">
+        <v>3530562</v>
+      </c>
+      <c r="BX29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY29">
+        <v>9.8143869600602854E-2</v>
+      </c>
+      <c r="CA29" s="9">
+        <v>26529850</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC29">
+        <v>2.7147189132598434E-2</v>
+      </c>
+      <c r="CG29">
+        <v>1</v>
+      </c>
+      <c r="CH29">
+        <v>2</v>
+      </c>
+      <c r="CI29">
+        <v>4</v>
+      </c>
+      <c r="CJ29">
+        <v>8</v>
+      </c>
+      <c r="CK29">
+        <v>16</v>
+      </c>
+      <c r="CL29">
+        <v>32</v>
+      </c>
+      <c r="CM29">
+        <v>64</v>
+      </c>
+      <c r="CN29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -4315,25 +10655,25 @@
       <c r="I30" s="6">
         <v>48043</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>7497711279</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <v>7512907878</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="9">
         <v>172802362385</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <v>53412889</v>
       </c>
       <c r="AA30" s="1" t="s">
@@ -4343,8 +10683,143 @@
         <f>Z30/Z29*100</f>
         <v>0.12163643322810065</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK30" s="9">
+        <v>15791646425</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO30" s="9">
+        <v>155102365566</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS30" s="9">
+        <v>19909526433</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW30" s="9">
+        <v>16485489</v>
+      </c>
+      <c r="AX30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>0.2109022671401424</v>
+      </c>
+      <c r="BA30" s="9">
+        <v>4219765</v>
+      </c>
+      <c r="BB30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC30">
+        <v>2.6088537972475109E-2</v>
+      </c>
+      <c r="BE30" s="9">
+        <v>11277724</v>
+      </c>
+      <c r="BF30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG30">
+        <v>0.14257900848298907</v>
+      </c>
+      <c r="BJ30" s="9">
+        <v>5733887</v>
+      </c>
+      <c r="BK30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL30">
+        <v>3.2887664274611109E-2</v>
+      </c>
+      <c r="BN30" s="9">
+        <v>93998997</v>
+      </c>
+      <c r="BO30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP30">
+        <v>0.16122432497841066</v>
+      </c>
+      <c r="BR30" s="9">
+        <v>88000330</v>
+      </c>
+      <c r="BS30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT30">
+        <v>0.11457253302543206</v>
+      </c>
+      <c r="BW30" s="9">
+        <v>1006963865</v>
+      </c>
+      <c r="BX30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA30" s="9">
+        <v>181903634357</v>
+      </c>
+      <c r="CB30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG30" s="7">
+        <v>6294272</v>
+      </c>
+      <c r="CH30" s="7">
+        <v>5849966</v>
+      </c>
+      <c r="CI30" s="7">
+        <v>6547915</v>
+      </c>
+      <c r="CJ30" s="7">
+        <v>1774413</v>
+      </c>
+      <c r="CK30" s="7">
+        <v>1645751</v>
+      </c>
+      <c r="CL30" s="7">
+        <v>1627194</v>
+      </c>
+      <c r="CM30" s="7">
+        <v>1763058</v>
+      </c>
+      <c r="CN30" s="7">
+        <v>1840783</v>
+      </c>
+      <c r="CQ30">
+        <v>1</v>
+      </c>
+      <c r="CR30">
+        <v>2</v>
+      </c>
+      <c r="CS30">
+        <v>4</v>
+      </c>
+      <c r="CT30">
+        <v>8</v>
+      </c>
+      <c r="CU30">
+        <v>16</v>
+      </c>
+      <c r="CV30">
+        <v>32</v>
+      </c>
+      <c r="CW30">
+        <v>64</v>
+      </c>
+      <c r="CX30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4372,32 +10847,161 @@
       <c r="I31" s="6">
         <v>4506048</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>56870.871408999999</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <v>57050.815692999997</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U31" s="9">
         <v>1306160.0975959999</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <v>131573431168</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AK31" s="9">
+        <v>3857290</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM31">
+        <v>2.4426142127229142E-2</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>59795191</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ31">
+        <v>3.8552081898812575E-2</v>
+      </c>
+      <c r="AS31" s="9">
+        <v>41504379</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU31">
+        <v>0.20846492326008606</v>
+      </c>
+      <c r="AW31" s="9">
+        <v>172802362385</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA31" s="9">
+        <v>7489210717</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE31" s="9">
+        <v>172167607058</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ31" s="9">
+        <v>7512907878</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN31" s="9">
+        <v>144622155696</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR31" s="9">
+        <v>151628767367</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW31" s="9">
+        <v>7687.2089859999996</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA31" s="9">
+        <v>1373422.8632350001</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG31" s="7">
+        <v>6293057</v>
+      </c>
+      <c r="CH31" s="7">
+        <v>3203711</v>
+      </c>
+      <c r="CI31" s="7">
+        <v>2494018</v>
+      </c>
+      <c r="CJ31" s="7">
+        <v>1758749</v>
+      </c>
+      <c r="CK31" s="7">
+        <v>1642452</v>
+      </c>
+      <c r="CL31" s="7">
+        <v>1626682</v>
+      </c>
+      <c r="CM31" s="7">
+        <v>1778351</v>
+      </c>
+      <c r="CN31" s="7">
+        <v>1853336</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>76</v>
+      </c>
+      <c r="CQ31" s="6">
+        <v>5981033</v>
+      </c>
+      <c r="CR31" s="6">
+        <v>5573104</v>
+      </c>
+      <c r="CS31" s="6">
+        <v>3754635</v>
+      </c>
+      <c r="CT31" s="6">
+        <v>3784453</v>
+      </c>
+      <c r="CU31" s="6">
+        <v>3803067</v>
+      </c>
+      <c r="CV31" s="6">
+        <v>5744112</v>
+      </c>
+      <c r="CW31" s="6">
+        <v>8077373</v>
+      </c>
+      <c r="CX31" s="6">
+        <v>4097078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -4425,32 +11029,125 @@
       <c r="I32" s="6">
         <v>8333710</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>56871.115091</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>57050.967133999999</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="9">
         <v>1306157.0382419999</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <v>997297.92553899996</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK32" s="9">
+        <v>7497711279</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO32" s="9">
+        <v>141305502662</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS32" s="9">
+        <v>135179386187</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW32" s="9">
+        <v>1306160.0975959999</v>
+      </c>
+      <c r="AX32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA32" s="9">
+        <v>56931.941617999997</v>
+      </c>
+      <c r="BB32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE32" s="9">
+        <v>1302448.304822</v>
+      </c>
+      <c r="BF32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ32" s="9">
+        <v>57050.815692999997</v>
+      </c>
+      <c r="BK32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN32" s="9">
+        <v>1096546.115252</v>
+      </c>
+      <c r="BO32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR32" s="9">
+        <v>1150267.957463</v>
+      </c>
+      <c r="BS32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW32" s="9">
+        <v>7687.6395069999999</v>
+      </c>
+      <c r="BX32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA32" s="9">
+        <v>1373422.1918329999</v>
+      </c>
+      <c r="CB32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ32" s="6">
+        <v>6310024</v>
+      </c>
+      <c r="CR32" s="6">
+        <v>6200797</v>
+      </c>
+      <c r="CS32" s="6">
+        <v>6123480</v>
+      </c>
+      <c r="CT32" s="6">
+        <v>6224203</v>
+      </c>
+      <c r="CU32" s="6">
+        <v>6195929</v>
+      </c>
+      <c r="CV32" s="6">
+        <v>6242405</v>
+      </c>
+      <c r="CW32" s="6">
+        <v>5234582</v>
+      </c>
+      <c r="CX32" s="6">
+        <v>48043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4478,7 +11175,7 @@
       <c r="I33" s="6">
         <v>2327420</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>52355183299</v>
       </c>
       <c r="N33" t="s">
@@ -4487,7 +11184,7 @@
       <c r="O33">
         <v>61.371893328390406</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>48079634126</v>
       </c>
       <c r="R33" t="s">
@@ -4496,7 +11193,7 @@
       <c r="S33">
         <v>57.473787182865024</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="9">
         <v>2702865287076</v>
       </c>
       <c r="V33" t="s">
@@ -4505,14 +11202,113 @@
       <c r="W33">
         <v>99.366190216158273</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <v>997267.49901200004</v>
       </c>
       <c r="AA33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK33" s="9">
+        <v>56870.871408999999</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO33" s="9">
+        <v>1067874.4752559999</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS33" s="9">
+        <v>1023649.793697</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW33" s="9">
+        <v>1306157.0382419999</v>
+      </c>
+      <c r="AX33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA33" s="9">
+        <v>56932.173533000001</v>
+      </c>
+      <c r="BB33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE33" s="9">
+        <v>1302446.3341399999</v>
+      </c>
+      <c r="BF33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ33" s="9">
+        <v>57050.967133999999</v>
+      </c>
+      <c r="BK33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN33" s="9">
+        <v>1096523.7344500001</v>
+      </c>
+      <c r="BO33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR33" s="9">
+        <v>1150234.8465750001</v>
+      </c>
+      <c r="BS33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW33" s="9">
+        <v>8124979727</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY33">
+        <v>53.328619078207616</v>
+      </c>
+      <c r="CA33" s="9">
+        <v>2630763526689</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC33">
+        <v>91.708592795219317</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ33" s="6">
+        <v>4515047</v>
+      </c>
+      <c r="CR33" s="6">
+        <v>4294206</v>
+      </c>
+      <c r="CS33" s="6">
+        <v>4555294</v>
+      </c>
+      <c r="CT33" s="6">
+        <v>6351807</v>
+      </c>
+      <c r="CU33" s="6">
+        <v>4315957</v>
+      </c>
+      <c r="CV33" s="6">
+        <v>4301192</v>
+      </c>
+      <c r="CW33" s="6">
+        <v>6446069</v>
+      </c>
+      <c r="CX33" s="6">
+        <v>5411589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4540,7 +11336,7 @@
       <c r="I34" s="6">
         <v>3421791</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <v>41366005089</v>
       </c>
       <c r="N34" t="s">
@@ -4549,7 +11345,7 @@
       <c r="O34">
         <v>48.49013778149169</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>39626617921</v>
       </c>
       <c r="R34" t="s">
@@ -4558,7 +11354,7 @@
       <c r="S34">
         <v>47.369158409145655</v>
       </c>
-      <c r="U34" s="10">
+      <c r="U34" s="9">
         <v>2634229355419</v>
       </c>
       <c r="V34" t="s">
@@ -4567,7 +11363,7 @@
       <c r="W34">
         <v>96.842908322197971</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="Z34" s="9">
         <v>1825851385993</v>
       </c>
       <c r="AA34" t="s">
@@ -4577,8 +11373,98 @@
         <f>Z34/Z25*100</f>
         <v>96.004897689211163</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK34" s="9">
+        <v>56871.115091</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO34" s="9">
+        <v>1067874.446924</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS34" s="9">
+        <v>1023649.939641</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW34" s="9">
+        <v>2702865287076</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY34">
+        <v>99.366190216158273</v>
+      </c>
+      <c r="BA34" s="9">
+        <v>52787774839</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC34">
+        <v>60.432554613421907</v>
+      </c>
+      <c r="BE34" s="9">
+        <v>2668919912222</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG34">
+        <v>99.084186797879084</v>
+      </c>
+      <c r="BJ34" s="9">
+        <v>48079634126</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL34">
+        <v>57.473787182865024</v>
+      </c>
+      <c r="BN34" s="9">
+        <v>2141911405004</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP34">
+        <v>95.742674784517149</v>
+      </c>
+      <c r="BR34" s="9">
+        <v>2224237122947</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT34">
+        <v>94.811015059100143</v>
+      </c>
+      <c r="BW34" s="9">
+        <v>6989479660</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY34">
+        <v>45.875720416184627</v>
+      </c>
+      <c r="CA34" s="9">
+        <v>2247464627164</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC34">
+        <v>78.346767477671719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4606,10 +11492,10 @@
       <c r="I35" s="6">
         <v>1951927</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="Z35" s="10">
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="Z35" s="9">
         <v>1539810715708</v>
       </c>
       <c r="AA35" t="s">
@@ -4619,8 +11505,89 @@
         <f>Z35/Z25*100</f>
         <v>80.964623603196316</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK35" s="9">
+        <v>52355183299</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM35">
+        <v>61.371893328390406</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>1914515811359</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ35">
+        <v>86.066949140306363</v>
+      </c>
+      <c r="AS35" s="9">
+        <v>2087393235157</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU35">
+        <v>97.749943150705036</v>
+      </c>
+      <c r="AW35" s="9">
+        <v>2634229355419</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY35">
+        <v>96.842908322197971</v>
+      </c>
+      <c r="BA35" s="9">
+        <v>41833785934</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC35">
+        <v>47.892197783545527</v>
+      </c>
+      <c r="BE35" s="9">
+        <v>2510455675566</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG35">
+        <v>93.201170243615238</v>
+      </c>
+      <c r="BJ35" s="9">
+        <v>39626617921</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL35">
+        <v>47.369158409145655</v>
+      </c>
+      <c r="BN35" s="9">
+        <v>1702901077179</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP35">
+        <v>76.119069930555071</v>
+      </c>
+      <c r="BR35" s="9">
+        <v>1794569755877</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT35">
+        <v>76.495881843580847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4666,8 +11633,52 @@
       <c r="R36" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK36" s="9">
+        <v>41366005089</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM36">
+        <v>48.49013778149169</v>
+      </c>
+      <c r="AO36" s="9">
+        <v>926136349238</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ36">
+        <v>41.63440677477341</v>
+      </c>
+      <c r="AS36" s="9">
+        <v>1936749615556</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU36">
+        <v>90.695496003899635</v>
+      </c>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="8"/>
+      <c r="BW36" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4698,26 +11709,47 @@
       <c r="L37" t="s">
         <v>100</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="9">
         <v>83654891182</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="9">
         <v>86505423537</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="9">
         <v>111460201</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="9">
         <v>102277723</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <v>48079634126</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="9">
         <v>39626617921</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="BV37" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW37" s="9">
+        <v>15235683705</v>
+      </c>
+      <c r="BX37" s="9">
+        <v>30612257</v>
+      </c>
+      <c r="BY37" s="9">
+        <v>23681053</v>
+      </c>
+      <c r="BZ37" s="9">
+        <v>8124979727</v>
+      </c>
+      <c r="CA37" s="9">
+        <v>6989479660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -4748,26 +11780,74 @@
       <c r="L38" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="9">
         <v>2720105582388</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="9">
         <v>35474162702</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <v>354385343</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="9">
         <v>285703484</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="9">
         <v>2702865287076</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="9">
         <v>2634229355419</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AK38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW38" s="9">
+        <v>2868611813250</v>
+      </c>
+      <c r="BX38" s="9">
+        <v>435086720</v>
+      </c>
+      <c r="BY38" s="9">
+        <v>228332441</v>
+      </c>
+      <c r="BZ38" s="9">
+        <v>2630763526689</v>
+      </c>
+      <c r="CA38" s="9">
+        <v>2247464627164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4798,26 +11878,77 @@
       <c r="L39" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="9">
         <v>85308079089</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="9">
         <v>79994895074</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="9">
         <v>86035699</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="9">
         <v>77068971</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <v>52355183299</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="9">
         <v>41366005089</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AJ39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK39" s="9">
+        <v>85308079089</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>86035699</v>
+      </c>
+      <c r="AM39" s="9">
+        <v>77068971</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>52355183299</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>41366005089</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ39" s="9">
+        <v>83654891182</v>
+      </c>
+      <c r="BK39" s="9">
+        <v>17434765060</v>
+      </c>
+      <c r="BL39" s="9">
+        <v>5733887</v>
+      </c>
+      <c r="BM39" s="9">
+        <v>48079634126</v>
+      </c>
+      <c r="BN39" s="9">
+        <v>39626617921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4866,8 +11997,62 @@
       <c r="R40" s="1">
         <v>1539810715708</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AJ40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK40" s="9">
+        <v>2224449490173</v>
+      </c>
+      <c r="AL40" s="9">
+        <v>678328971</v>
+      </c>
+      <c r="AM40" s="9">
+        <v>301952365</v>
+      </c>
+      <c r="AN40" s="9">
+        <v>1914515811359</v>
+      </c>
+      <c r="AO40" s="9">
+        <v>926136349238</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW40" s="9">
+        <v>85308079089</v>
+      </c>
+      <c r="AX40" s="9">
+        <v>16174785281</v>
+      </c>
+      <c r="AY40" s="9">
+        <v>4219765</v>
+      </c>
+      <c r="AZ40" s="9">
+        <v>52355183299</v>
+      </c>
+      <c r="BA40" s="9">
+        <v>41366005089</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ40" s="9">
+        <v>2237154340867</v>
+      </c>
+      <c r="BK40" s="9">
+        <v>58303234957</v>
+      </c>
+      <c r="BL40" s="9">
+        <v>93998997</v>
+      </c>
+      <c r="BM40" s="9">
+        <v>2141911405004</v>
+      </c>
+      <c r="BN40" s="9">
+        <v>1702901077179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -4898,8 +12083,62 @@
       <c r="L41" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AJ41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK41" s="9">
+        <v>2135441891704</v>
+      </c>
+      <c r="AL41" s="9">
+        <v>420025563</v>
+      </c>
+      <c r="AM41" s="9">
+        <v>248508290</v>
+      </c>
+      <c r="AN41" s="9">
+        <v>2087393235157</v>
+      </c>
+      <c r="AO41" s="9">
+        <v>1936749615556</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW41" s="9">
+        <v>2224449490173</v>
+      </c>
+      <c r="AX41" s="9">
+        <v>7816648547</v>
+      </c>
+      <c r="AY41" s="9">
+        <v>16485489</v>
+      </c>
+      <c r="AZ41" s="9">
+        <v>1914515811359</v>
+      </c>
+      <c r="BA41" s="9">
+        <v>926136349238</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ41" s="9">
+        <v>214144820112</v>
+      </c>
+      <c r="BK41" s="9">
+        <v>76807527665</v>
+      </c>
+      <c r="BL41" s="9">
+        <v>88000330</v>
+      </c>
+      <c r="BM41" s="9">
+        <v>2224237122947</v>
+      </c>
+      <c r="BN41" s="9">
+        <v>1794569755877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -4930,8 +12169,26 @@
       <c r="L42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AV42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW42" s="9">
+        <v>2135441891704</v>
+      </c>
+      <c r="AX42" s="9">
+        <v>7909806724</v>
+      </c>
+      <c r="AY42" s="9">
+        <v>11277724</v>
+      </c>
+      <c r="AZ42" s="9">
+        <v>2087393235157</v>
+      </c>
+      <c r="BA42" s="9">
+        <v>1936749615556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -4963,7 +12220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -4992,7 +12249,7 @@
         <v>4330903</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -5021,7 +12278,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -5050,20 +12307,20 @@
         <v>111106</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1</v>
       </c>
@@ -5089,7 +12346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -5118,7 +12375,7 @@
         <v>949825</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -5158,8 +12415,9 @@
       <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
-    </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ51"/>
+    </row>
+    <row r="52" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -5188,7 +12446,7 @@
         <v>558429</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -5217,7 +12475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -5257,8 +12515,9 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -5287,7 +12546,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -5316,7 +12575,7 @@
         <v>485102</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -5346,7 +12605,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -5375,7 +12634,7 @@
         <v>582545</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -5415,8 +12674,9 @@
       <c r="U59"/>
       <c r="V59"/>
       <c r="W59"/>
-    </row>
-    <row r="60" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ59"/>
+    </row>
+    <row r="60" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +12705,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -5475,7 +12735,7 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5499,8 +12759,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="3"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5514,7 +12775,7 @@
       <c r="I63" s="6"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -5528,7 +12789,7 @@
       <c r="I64" s="6"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -5543,7 +12804,7 @@
       <c r="L65" s="1"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -5558,7 +12819,7 @@
       <c r="L66" s="1"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -5582,8 +12843,9 @@
       <c r="U67"/>
       <c r="V67"/>
       <c r="W67"/>
-    </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ67"/>
+    </row>
+    <row r="68" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -5597,7 +12859,7 @@
       <c r="I68" s="6"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -5610,7 +12872,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -5634,8 +12896,33 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="3"/>
+      <c r="CQ70">
+        <v>1</v>
+      </c>
+      <c r="CR70">
+        <v>2</v>
+      </c>
+      <c r="CS70">
+        <v>4</v>
+      </c>
+      <c r="CT70">
+        <v>8</v>
+      </c>
+      <c r="CU70">
+        <v>16</v>
+      </c>
+      <c r="CV70">
+        <v>32</v>
+      </c>
+      <c r="CW70">
+        <v>64</v>
+      </c>
+      <c r="CX70">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -5649,8 +12936,35 @@
       <c r="I71" s="6"/>
       <c r="L71" s="1"/>
       <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="CP71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ71" s="7">
+        <v>5266644</v>
+      </c>
+      <c r="CR71" s="7">
+        <v>4864164</v>
+      </c>
+      <c r="CS71" s="7">
+        <v>4862164</v>
+      </c>
+      <c r="CT71" s="7">
+        <v>4645959</v>
+      </c>
+      <c r="CU71" s="7">
+        <v>3968256</v>
+      </c>
+      <c r="CV71" s="7">
+        <v>3693648</v>
+      </c>
+      <c r="CW71" s="7">
+        <v>3902029</v>
+      </c>
+      <c r="CX71" s="7">
+        <v>3403960</v>
+      </c>
+    </row>
+    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -5664,8 +12978,35 @@
       <c r="I72" s="6"/>
       <c r="L72" s="1"/>
       <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="CP72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ72" s="7">
+        <v>6681809</v>
+      </c>
+      <c r="CR72" s="7">
+        <v>10074439</v>
+      </c>
+      <c r="CS72" s="7">
+        <v>12793180</v>
+      </c>
+      <c r="CT72" s="7">
+        <v>13350462</v>
+      </c>
+      <c r="CU72" s="7">
+        <v>13259598</v>
+      </c>
+      <c r="CV72" s="7">
+        <v>13346166</v>
+      </c>
+      <c r="CW72" s="7">
+        <v>13379422</v>
+      </c>
+      <c r="CX72" s="7">
+        <v>13322552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -5679,8 +13020,35 @@
       <c r="I73" s="6"/>
       <c r="L73" s="1"/>
       <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="CP73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ73" s="7">
+        <v>7029139</v>
+      </c>
+      <c r="CR73" s="7">
+        <v>7078128</v>
+      </c>
+      <c r="CS73" s="7">
+        <v>10421046</v>
+      </c>
+      <c r="CT73" s="7">
+        <v>5848567</v>
+      </c>
+      <c r="CU73" s="7">
+        <v>5865736</v>
+      </c>
+      <c r="CV73" s="7">
+        <v>6058356</v>
+      </c>
+      <c r="CW73" s="7">
+        <v>5614912</v>
+      </c>
+      <c r="CX73" s="7">
+        <v>5855952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -5695,7 +13063,7 @@
       <c r="L74" s="1"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -5708,7 +13076,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -5721,7 +13089,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>57</v>
       </c>
@@ -5734,7 +13102,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -5748,7 +13116,7 @@
       <c r="I78" s="6"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -5762,7 +13130,7 @@
       <c r="I79" s="6"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -5851,17 +13219,17 @@
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
       <c r="L87" s="1"/>
       <c r="O87" s="2"/>
     </row>
@@ -5993,17 +13361,17 @@
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
       <c r="L95" s="1"/>
       <c r="O95" s="2"/>
     </row>
@@ -6108,17 +13476,17 @@
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">

--- a/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
+++ b/Data Structures/linked_list/Doubly Linked Buffer/MPMC_Buffer_Test_Data.xlsx
@@ -397,8 +397,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#.##,,,\ &quot;B&quot;"/>
+    <numFmt numFmtId="165" formatCode="#.##,,\ &quot;M&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -437,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,6 +456,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -494,15 +498,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Doubly Linked Buffer; Stoker; Compare-and-swap, Test-and-set &amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Test-and-test-and-set locks</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>;</a:t>
+              <a:t>Doubly Linked Buffer; Stoker; Best Performing Locks;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -777,11 +773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100238464"/>
-        <c:axId val="100240384"/>
+        <c:axId val="41190912"/>
+        <c:axId val="41192832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100238464"/>
+        <c:axId val="41190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100240384"/>
+        <c:crossAx val="41192832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100240384"/>
+        <c:axId val="41192832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +832,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -848,9 +844,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100238464"/>
+        <c:crossAx val="41190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1108,11 +1107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45571072"/>
-        <c:axId val="115897472"/>
+        <c:axId val="42332160"/>
+        <c:axId val="42334080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45571072"/>
+        <c:axId val="42332160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115897472"/>
+        <c:crossAx val="42334080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115897472"/>
+        <c:axId val="42334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1166,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1179,9 +1178,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45571072"/>
+        <c:crossAx val="42332160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1439,11 +1441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115813376"/>
-        <c:axId val="115817472"/>
+        <c:axId val="42354176"/>
+        <c:axId val="42356096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115813376"/>
+        <c:axId val="42354176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115817472"/>
+        <c:crossAx val="42356096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1480,7 +1482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115817472"/>
+        <c:axId val="42356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115813376"/>
+        <c:crossAx val="42354176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,11 +1772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115860608"/>
-        <c:axId val="115884032"/>
+        <c:axId val="42410752"/>
+        <c:axId val="42412672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115860608"/>
+        <c:axId val="42410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115884032"/>
+        <c:crossAx val="42412672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115884032"/>
+        <c:axId val="42412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1831,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1841,9 +1843,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115860608"/>
+        <c:crossAx val="42410752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2199,11 +2204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98307456"/>
-        <c:axId val="98309632"/>
+        <c:axId val="42455808"/>
+        <c:axId val="42457728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98307456"/>
+        <c:axId val="42455808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98309632"/>
+        <c:crossAx val="42457728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98309632"/>
+        <c:axId val="42457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2263,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2270,9 +2275,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98307456"/>
+        <c:crossAx val="42455808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2620,11 +2628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98648064"/>
-        <c:axId val="98649984"/>
+        <c:axId val="42509056"/>
+        <c:axId val="42510976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98648064"/>
+        <c:axId val="42509056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +2661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98649984"/>
+        <c:crossAx val="42510976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98649984"/>
+        <c:axId val="42510976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2687,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2691,9 +2699,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98648064"/>
+        <c:crossAx val="42509056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3048,11 +3059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93072384"/>
-        <c:axId val="93549312"/>
+        <c:axId val="42157184"/>
+        <c:axId val="42159104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93072384"/>
+        <c:axId val="42157184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,7 +3092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93549312"/>
+        <c:crossAx val="42159104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3089,7 +3100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93549312"/>
+        <c:axId val="42159104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93072384"/>
+        <c:crossAx val="42157184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,7 +3185,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>; Test-and-test-and-set Lock;</a:t>
+              <a:t>; Lockless;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3476,11 +3487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98540544"/>
-        <c:axId val="98547200"/>
+        <c:axId val="42075648"/>
+        <c:axId val="42077184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98540544"/>
+        <c:axId val="42075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98547200"/>
+        <c:crossAx val="42077184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3517,7 +3528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98547200"/>
+        <c:axId val="42077184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3546,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3547,9 +3558,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98540544"/>
+        <c:crossAx val="42075648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3986,11 +4000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100025856"/>
-        <c:axId val="100036608"/>
+        <c:axId val="41371520"/>
+        <c:axId val="41390464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100025856"/>
+        <c:axId val="41371520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100036608"/>
+        <c:crossAx val="41390464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100036608"/>
+        <c:axId val="41390464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,7 +4071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100025856"/>
+        <c:crossAx val="41371520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4988,11 +5002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107040128"/>
-        <c:axId val="107050496"/>
+        <c:axId val="41914368"/>
+        <c:axId val="41916288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107040128"/>
+        <c:axId val="41914368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5021,7 +5035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107050496"/>
+        <c:crossAx val="41916288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5029,7 +5043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107050496"/>
+        <c:axId val="41916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107040128"/>
+        <c:crossAx val="41914368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5471,11 +5485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107078400"/>
-        <c:axId val="107080320"/>
+        <c:axId val="41940096"/>
+        <c:axId val="41942016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107078400"/>
+        <c:axId val="41940096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5504,7 +5518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107080320"/>
+        <c:crossAx val="41942016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5512,7 +5526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107080320"/>
+        <c:axId val="41942016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5544,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5542,9 +5556,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107078400"/>
+        <c:crossAx val="41940096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5908,11 +5925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119464320"/>
-        <c:axId val="119466240"/>
+        <c:axId val="41716352"/>
+        <c:axId val="41718912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119464320"/>
+        <c:axId val="41716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,7 +5958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119466240"/>
+        <c:crossAx val="41718912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5949,7 +5966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119466240"/>
+        <c:axId val="41718912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5984,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5979,9 +5996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119464320"/>
+        <c:crossAx val="41716352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6345,11 +6365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44656896"/>
-        <c:axId val="44676224"/>
+        <c:axId val="41761408"/>
+        <c:axId val="41776256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44656896"/>
+        <c:axId val="41761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6378,7 +6398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44676224"/>
+        <c:crossAx val="41776256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6386,7 +6406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44676224"/>
+        <c:axId val="41776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6424,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6416,9 +6436,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44656896"/>
+        <c:crossAx val="41761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6782,11 +6805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107222528"/>
-        <c:axId val="107234432"/>
+        <c:axId val="41802368"/>
+        <c:axId val="41817216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107222528"/>
+        <c:axId val="41802368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,7 +6838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107234432"/>
+        <c:crossAx val="41817216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6823,7 +6846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107234432"/>
+        <c:axId val="41817216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6841,7 +6864,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6853,9 +6876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107222528"/>
+        <c:crossAx val="41802368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7121,11 +7147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93063040"/>
-        <c:axId val="93520256"/>
+        <c:axId val="41847040"/>
+        <c:axId val="41857408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93063040"/>
+        <c:axId val="41847040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7154,7 +7180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93520256"/>
+        <c:crossAx val="41857408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7162,7 +7188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93520256"/>
+        <c:axId val="41857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,7 +7206,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7192,9 +7218,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93063040"/>
+        <c:crossAx val="41847040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7452,11 +7481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45668992"/>
-        <c:axId val="58659584"/>
+        <c:axId val="42284160"/>
+        <c:axId val="42286080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45668992"/>
+        <c:axId val="42284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7485,7 +7514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58659584"/>
+        <c:crossAx val="42286080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7493,7 +7522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58659584"/>
+        <c:axId val="42286080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7511,7 +7540,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7523,9 +7552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45668992"/>
+        <c:crossAx val="42284160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8351,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:CX436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB58" workbookViewId="0">
-      <selection activeCell="CP76" sqref="CP76"/>
+    <sheetView tabSelected="1" topLeftCell="CB61" workbookViewId="0">
+      <selection activeCell="CL76" sqref="CL76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11709,22 +11741,22 @@
       <c r="L37" t="s">
         <v>100</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="12">
         <v>83654891182</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="12">
         <v>86505423537</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="13">
         <v>111460201</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="13">
         <v>102277723</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="12">
         <v>48079634126</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="12">
         <v>39626617921</v>
       </c>
       <c r="AW37" s="9"/>
@@ -11733,19 +11765,19 @@
       <c r="BV37" t="s">
         <v>122</v>
       </c>
-      <c r="BW37" s="9">
+      <c r="BW37" s="12">
         <v>15235683705</v>
       </c>
-      <c r="BX37" s="9">
+      <c r="BX37" s="13">
         <v>30612257</v>
       </c>
-      <c r="BY37" s="9">
+      <c r="BY37" s="13">
         <v>23681053</v>
       </c>
-      <c r="BZ37" s="9">
+      <c r="BZ37" s="12">
         <v>8124979727</v>
       </c>
-      <c r="CA37" s="9">
+      <c r="CA37" s="12">
         <v>6989479660</v>
       </c>
     </row>
@@ -11780,22 +11812,22 @@
       <c r="L38" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="12">
         <v>2720105582388</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="12">
         <v>35474162702</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="13">
         <v>354385343</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="13">
         <v>285703484</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="12">
         <v>2702865287076</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="12">
         <v>2634229355419</v>
       </c>
       <c r="AK38" t="s">
@@ -11831,19 +11863,19 @@
       <c r="BV38" t="s">
         <v>123</v>
       </c>
-      <c r="BW38" s="9">
+      <c r="BW38" s="12">
         <v>2868611813250</v>
       </c>
-      <c r="BX38" s="9">
+      <c r="BX38" s="13">
         <v>435086720</v>
       </c>
-      <c r="BY38" s="9">
+      <c r="BY38" s="13">
         <v>228332441</v>
       </c>
-      <c r="BZ38" s="9">
+      <c r="BZ38" s="12">
         <v>2630763526689</v>
       </c>
-      <c r="CA38" s="9">
+      <c r="CA38" s="12">
         <v>2247464627164</v>
       </c>
     </row>
@@ -11878,40 +11910,40 @@
       <c r="L39" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="12">
         <v>85308079089</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="12">
         <v>79994895074</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="13">
         <v>86035699</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="13">
         <v>77068971</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="12">
         <v>52355183299</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="12">
         <v>41366005089</v>
       </c>
       <c r="AJ39" t="s">
         <v>102</v>
       </c>
-      <c r="AK39" s="9">
+      <c r="AK39" s="12">
         <v>85308079089</v>
       </c>
-      <c r="AL39" s="9">
+      <c r="AL39" s="13">
         <v>86035699</v>
       </c>
-      <c r="AM39" s="9">
+      <c r="AM39" s="13">
         <v>77068971</v>
       </c>
-      <c r="AN39" s="9">
+      <c r="AN39" s="12">
         <v>52355183299</v>
       </c>
-      <c r="AO39" s="9">
+      <c r="AO39" s="12">
         <v>41366005089</v>
       </c>
       <c r="AW39" t="s">
@@ -11932,19 +11964,19 @@
       <c r="BI39" t="s">
         <v>100</v>
       </c>
-      <c r="BJ39" s="9">
+      <c r="BJ39" s="12">
         <v>83654891182</v>
       </c>
-      <c r="BK39" s="9">
+      <c r="BK39" s="12">
         <v>17434765060</v>
       </c>
-      <c r="BL39" s="9">
+      <c r="BL39" s="13">
         <v>5733887</v>
       </c>
-      <c r="BM39" s="9">
+      <c r="BM39" s="12">
         <v>48079634126</v>
       </c>
-      <c r="BN39" s="9">
+      <c r="BN39" s="12">
         <v>39626617921</v>
       </c>
     </row>
@@ -11979,76 +12011,76 @@
       <c r="L40" t="s">
         <v>112</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="12">
         <v>1901831500205</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="12">
         <v>134361208960</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="13">
         <v>670122662</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="13">
         <v>417186847</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="12">
         <v>1825851385993</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="12">
         <v>1539810715708</v>
       </c>
       <c r="AJ40" t="s">
         <v>113</v>
       </c>
-      <c r="AK40" s="9">
+      <c r="AK40" s="12">
         <v>2224449490173</v>
       </c>
-      <c r="AL40" s="9">
+      <c r="AL40" s="13">
         <v>678328971</v>
       </c>
-      <c r="AM40" s="9">
+      <c r="AM40" s="13">
         <v>301952365</v>
       </c>
-      <c r="AN40" s="9">
+      <c r="AN40" s="12">
         <v>1914515811359</v>
       </c>
-      <c r="AO40" s="9">
+      <c r="AO40" s="12">
         <v>926136349238</v>
       </c>
       <c r="AV40" t="s">
         <v>101</v>
       </c>
-      <c r="AW40" s="9">
+      <c r="AW40" s="12">
         <v>85308079089</v>
       </c>
-      <c r="AX40" s="9">
+      <c r="AX40" s="12">
         <v>16174785281</v>
       </c>
-      <c r="AY40" s="9">
+      <c r="AY40" s="13">
         <v>4219765</v>
       </c>
-      <c r="AZ40" s="9">
+      <c r="AZ40" s="12">
         <v>52355183299</v>
       </c>
-      <c r="BA40" s="9">
+      <c r="BA40" s="12">
         <v>41366005089</v>
       </c>
       <c r="BI40" t="s">
         <v>120</v>
       </c>
-      <c r="BJ40" s="9">
+      <c r="BJ40" s="12">
         <v>2237154340867</v>
       </c>
-      <c r="BK40" s="9">
+      <c r="BK40" s="12">
         <v>58303234957</v>
       </c>
-      <c r="BL40" s="9">
+      <c r="BL40" s="13">
         <v>93998997</v>
       </c>
-      <c r="BM40" s="9">
+      <c r="BM40" s="12">
         <v>2141911405004</v>
       </c>
-      <c r="BN40" s="9">
+      <c r="BN40" s="12">
         <v>1702901077179</v>
       </c>
     </row>
@@ -12086,55 +12118,55 @@
       <c r="AJ41" t="s">
         <v>114</v>
       </c>
-      <c r="AK41" s="9">
+      <c r="AK41" s="12">
         <v>2135441891704</v>
       </c>
-      <c r="AL41" s="9">
+      <c r="AL41" s="13">
         <v>420025563</v>
       </c>
-      <c r="AM41" s="9">
+      <c r="AM41" s="13">
         <v>248508290</v>
       </c>
-      <c r="AN41" s="9">
+      <c r="AN41" s="12">
         <v>2087393235157</v>
       </c>
-      <c r="AO41" s="9">
+      <c r="AO41" s="12">
         <v>1936749615556</v>
       </c>
       <c r="AV41" t="s">
         <v>116</v>
       </c>
-      <c r="AW41" s="9">
+      <c r="AW41" s="12">
         <v>2224449490173</v>
       </c>
-      <c r="AX41" s="9">
+      <c r="AX41" s="12">
         <v>7816648547</v>
       </c>
-      <c r="AY41" s="9">
+      <c r="AY41" s="13">
         <v>16485489</v>
       </c>
-      <c r="AZ41" s="9">
+      <c r="AZ41" s="12">
         <v>1914515811359</v>
       </c>
-      <c r="BA41" s="9">
+      <c r="BA41" s="12">
         <v>926136349238</v>
       </c>
       <c r="BI41" t="s">
         <v>121</v>
       </c>
-      <c r="BJ41" s="9">
+      <c r="BJ41" s="12">
         <v>214144820112</v>
       </c>
-      <c r="BK41" s="9">
+      <c r="BK41" s="12">
         <v>76807527665</v>
       </c>
-      <c r="BL41" s="9">
+      <c r="BL41" s="13">
         <v>88000330</v>
       </c>
-      <c r="BM41" s="9">
+      <c r="BM41" s="12">
         <v>2224237122947</v>
       </c>
-      <c r="BN41" s="9">
+      <c r="BN41" s="12">
         <v>1794569755877</v>
       </c>
     </row>
@@ -12172,19 +12204,19 @@
       <c r="AV42" t="s">
         <v>117</v>
       </c>
-      <c r="AW42" s="9">
+      <c r="AW42" s="12">
         <v>2135441891704</v>
       </c>
-      <c r="AX42" s="9">
+      <c r="AX42" s="12">
         <v>7909806724</v>
       </c>
-      <c r="AY42" s="9">
+      <c r="AY42" s="13">
         <v>11277724</v>
       </c>
-      <c r="AZ42" s="9">
+      <c r="AZ42" s="12">
         <v>2087393235157</v>
       </c>
-      <c r="BA42" s="9">
+      <c r="BA42" s="12">
         <v>1936749615556</v>
       </c>
     </row>
